--- a/milk.xlsx
+++ b/milk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="2640" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="8420" yWindow="3740" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Calcium</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Fat</t>
   </si>
   <si>
-    <t>Vitamin A</t>
-  </si>
-  <si>
-    <t>Vitamin D</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
@@ -49,13 +43,40 @@
   </si>
   <si>
     <t>WholeMilk</t>
+  </si>
+  <si>
+    <t>ProteinPer</t>
+  </si>
+  <si>
+    <t>FatPer</t>
+  </si>
+  <si>
+    <t>CalciumPer</t>
+  </si>
+  <si>
+    <t>Vitamin</t>
+  </si>
+  <si>
+    <t>VitaminPer</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>SugarPer</t>
+  </si>
+  <si>
+    <t>EnergyPer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +100,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -97,17 +125,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,129 +507,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>293</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <f>B2/500*100</f>
+        <v>58.599999999999994</v>
+      </c>
+      <c r="D2">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
+        <f>D2/17*100</f>
+        <v>47.352941176470594</v>
+      </c>
+      <c r="F2">
         <v>4.83</v>
       </c>
-      <c r="E2">
-        <v>464</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
+      <c r="G2" s="1">
+        <f>F2/23*100</f>
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>584</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2/1100*100</f>
+        <v>53.090909090909086</v>
+      </c>
+      <c r="J2">
+        <v>12.35</v>
+      </c>
+      <c r="K2" s="1">
+        <f>J2/30*100</f>
+        <v>41.166666666666671</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1">
+        <f>L2/(600)*100</f>
+        <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>451</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C6" si="0">B3/500*100</f>
+        <v>90.2</v>
+      </c>
+      <c r="D3">
         <v>1.01</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E6" si="1">D3/17*100</f>
+        <v>5.9411764705882355</v>
+      </c>
+      <c r="F3">
         <v>2.5</v>
       </c>
-      <c r="E3">
-        <v>499</v>
-      </c>
-      <c r="F3">
-        <v>101</v>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="2">F3/23*100</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="H3">
+        <v>600</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I6" si="3">H3/1100*100</f>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K6" si="4">J3/30*100</f>
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>91</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M6" si="5">L3/(600)*100</f>
+        <v>15.166666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>299</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>59.8</v>
+      </c>
+      <c r="D4">
         <v>8.26</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>48.588235294117645</v>
+      </c>
+      <c r="F4">
         <v>0.2</v>
       </c>
-      <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>115</v>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="H4">
+        <v>615</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>55.909090909090907</v>
+      </c>
+      <c r="J4">
+        <v>12.47</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="4"/>
+        <v>41.56666666666667</v>
+      </c>
+      <c r="L4" s="2">
+        <v>83</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="5"/>
+        <v>13.833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>301</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>60.199999999999996</v>
+      </c>
+      <c r="D5">
         <v>6.95</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>40.882352941176471</v>
+      </c>
+      <c r="F5">
         <v>3.91</v>
       </c>
-      <c r="E5">
-        <v>503</v>
-      </c>
-      <c r="F5">
-        <v>119</v>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>622</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>56.545454545454547</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="5"/>
+        <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>276</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>55.2</v>
+      </c>
+      <c r="D6">
         <v>7.69</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>45.235294117647065</v>
+      </c>
+      <c r="F6">
         <v>7.93</v>
       </c>
-      <c r="E6">
-        <v>395</v>
-      </c>
-      <c r="F6">
-        <v>124</v>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>34.478260869565212</v>
+      </c>
+      <c r="H6">
+        <v>519</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>47.18181818181818</v>
+      </c>
+      <c r="J6">
+        <v>12.32</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="4"/>
+        <v>41.06666666666667</v>
+      </c>
+      <c r="L6">
+        <v>149</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
+        <v>24.833333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/milk.xlsx
+++ b/milk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="3740" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25600" windowHeight="13420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
